--- a/jyx2/Assets/Mods/JYX2/Configs/加成.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/加成.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\jynew\jyx2\Assets\Mods\jytest\Configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirr/Study/Games/Jynew/jynew/jyx2/Assets/Mods/JYX2/Configs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0AA046-AF34-4DF1-B607-11C3E61F9356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAA4122-8A92-E14C-BC63-B05592F7D21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="11180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -62,11 +62,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="맑은 고딕"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -100,7 +100,7 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -108,14 +108,14 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="宋体"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -157,7 +157,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -459,19 +459,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX11"/>
+  <dimension ref="A1:AX12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" s="1" customFormat="1" ht="14">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" s="1" customFormat="1" ht="14">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -524,7 +524,7 @@
       <c r="AW2" s="4"/>
       <c r="AX2" s="4"/>
     </row>
-    <row r="3" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" s="1" customFormat="1" ht="14">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -569,7 +569,7 @@
       <c r="AW3" s="4"/>
       <c r="AX3" s="4"/>
     </row>
-    <row r="4" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" s="1" customFormat="1" ht="14">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,7 +583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" s="1" customFormat="1">
       <c r="A5" s="1">
         <v>106</v>
       </c>
@@ -628,7 +628,7 @@
       <c r="AW5" s="4"/>
       <c r="AX5" s="4"/>
     </row>
-    <row r="6" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" s="1" customFormat="1">
       <c r="A6" s="1">
         <v>107</v>
       </c>
@@ -673,7 +673,7 @@
       <c r="AW6" s="4"/>
       <c r="AX6" s="4"/>
     </row>
-    <row r="7" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" s="1" customFormat="1">
       <c r="A7" s="1">
         <v>108</v>
       </c>
@@ -718,7 +718,7 @@
       <c r="AW7" s="4"/>
       <c r="AX7" s="4"/>
     </row>
-    <row r="8" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" s="1" customFormat="1">
       <c r="A8" s="1">
         <v>115</v>
       </c>
@@ -763,7 +763,7 @@
       <c r="AW8" s="4"/>
       <c r="AX8" s="4"/>
     </row>
-    <row r="9" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" s="1" customFormat="1">
       <c r="A9" s="1">
         <v>116</v>
       </c>
@@ -808,7 +808,7 @@
       <c r="AW9" s="4"/>
       <c r="AX9" s="4"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50">
       <c r="A10">
         <v>110</v>
       </c>
@@ -822,7 +822,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50">
       <c r="A11">
         <v>119</v>
       </c>
@@ -834,6 +834,20 @@
       </c>
       <c r="D11">
         <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50">
+      <c r="A12" s="1">
+        <v>198</v>
+      </c>
+      <c r="B12" s="1">
+        <v>198</v>
+      </c>
+      <c r="C12" s="5">
+        <v>98</v>
+      </c>
+      <c r="D12" s="6">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
